--- a/12. Hafta/Eğitim Öncesi/world_coronavirus_cases.xlsx
+++ b/12. Hafta/Eğitim Öncesi/world_coronavirus_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBK\Desktop\JupyterNotebook\Proje 2 - Folium ile İnteraktif Haritalar Oluşturmak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiri\OneDrive\Belgeler\GitHub\PythonEgitim\12. Hafta\Eğitim Öncesi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EED399-32DA-45D4-930B-A67162788BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20663A1-CD57-40B2-A2A3-79C3FF580279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="553">
   <si>
     <t>India</t>
   </si>
@@ -1663,13 +1663,34 @@
   </si>
   <si>
     <t>Northern Cyprus</t>
+  </si>
+  <si>
+    <t>2024-06</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>Önceki</t>
+  </si>
+  <si>
+    <t>Referans</t>
+  </si>
+  <si>
+    <t>Birim</t>
+  </si>
+  <si>
+    <t>2024-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1705,6 +1726,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1773,12 +1802,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,11 +1831,13 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2088,5603 +2118,6125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J180"/>
+  <dimension ref="A1:P180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="K1" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>6874596</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>202213</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>4155039</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>2517344</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>14227</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>95235022</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="15">
         <v>331420450</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>3.3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>546</v>
+      </c>
+      <c r="N2" t="s">
+        <v>547</v>
+      </c>
+      <c r="O2">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="P2">
+        <v>-95.712900000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>5214677</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>84404</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>4112551</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>1017722</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>8944</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>61572343</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <v>1382900689</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="19" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="K3">
+        <v>5.08</v>
+      </c>
+      <c r="L3">
+        <v>4.75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>546</v>
+      </c>
+      <c r="N3" t="s">
+        <v>547</v>
+      </c>
+      <c r="O3">
+        <v>20.593699999999998</v>
+      </c>
+      <c r="P3">
+        <v>78.962900000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>4457443</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>135031</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>3753082</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>56933</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>8318</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>14617980</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <v>212883816</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="19" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="K4">
+        <v>4.5</v>
+      </c>
+      <c r="L4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="M4" t="s">
+        <v>552</v>
+      </c>
+      <c r="N4" t="s">
+        <v>547</v>
+      </c>
+      <c r="O4">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="P4">
+        <v>-51.9253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1091186</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>19195</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>901207</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>170784</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>23</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>42000000</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>145948080</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="18" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="K5">
+        <v>9.1</v>
+      </c>
+      <c r="L5">
+        <v>8.6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>552</v>
+      </c>
+      <c r="N5" t="s">
+        <v>547</v>
+      </c>
+      <c r="O5">
+        <v>61.524000000000001</v>
+      </c>
+      <c r="P5">
+        <v>105.3188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>750098</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>31146</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>594513</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>124439</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>1439</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>3614738</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>33069039</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>743945</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>23665</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>615457</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>104823</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>863</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>3298415</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <v>50998462</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>684113</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>72179</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>488416</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>123518</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>2557</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>1549643</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>129221511</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="18" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="K8">
+        <v>5.57</v>
+      </c>
+      <c r="L8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="M8" t="s">
+        <v>552</v>
+      </c>
+      <c r="N8" t="s">
+        <v>547</v>
+      </c>
+      <c r="O8">
+        <v>23.634499999999999</v>
+      </c>
+      <c r="P8">
+        <v>-102.5528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>655572</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>15772</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>585303</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>54497</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>539</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>3983533</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <v>59467369</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="18" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="K9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L9">
+        <v>5.2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>546</v>
+      </c>
+      <c r="N9" t="s">
+        <v>547</v>
+      </c>
+      <c r="O9">
+        <v>-30.5595</v>
+      </c>
+      <c r="P9">
+        <v>22.9375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>625651</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>30405</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>1331</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>10756835</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <v>46758719</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="18" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="K10">
+        <v>2.8</v>
+      </c>
+      <c r="L10">
+        <v>3.4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>552</v>
+      </c>
+      <c r="N10" t="s">
+        <v>547</v>
+      </c>
+      <c r="O10">
+        <v>40.463700000000003</v>
+      </c>
+      <c r="P10">
+        <v>-3.7492000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>601713</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>1246</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>456347</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>132906</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>3108</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>1653616</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="15">
         <v>45284429</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="18" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="K11">
+        <v>272</v>
+      </c>
+      <c r="L11">
+        <v>276</v>
+      </c>
+      <c r="M11" t="s">
+        <v>546</v>
+      </c>
+      <c r="N11" t="s">
+        <v>547</v>
+      </c>
+      <c r="O11">
+        <v>-38.4161</v>
+      </c>
+      <c r="P11">
+        <v>-63.616700000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>44115</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>12142</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>413928</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>1508</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>895</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>2942651</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <v>19151322</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>415481</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>31095</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>9084</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>293546</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>800</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>10000000</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="15">
         <v>65304832</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="18" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="K13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M13" t="s">
+        <v>552</v>
+      </c>
+      <c r="N13" t="s">
+        <v>547</v>
+      </c>
+      <c r="O13">
+        <v>46.603400000000001</v>
+      </c>
+      <c r="P13">
+        <v>1.8883000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>413149</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>23808</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>353848</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>35493</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>3848</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>3667551</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <v>84220988</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>381614</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>41705</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>124</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>20521243</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="15">
         <v>67962867</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="18" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>546</v>
+      </c>
+      <c r="N15" t="s">
+        <v>547</v>
+      </c>
+      <c r="O15">
+        <v>55.378100000000003</v>
+      </c>
+      <c r="P15">
+        <v>-3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>344264</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>4859</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>250412</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>88993</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
         <v>1783779</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="15">
         <v>165039541</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="18" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>328144</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>4399</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>307207</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>16538</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>118</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>5917184</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="15">
         <v>34928178</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>307385</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>8332</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>2411</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>57953</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>586</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>1998295</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <v>40409852</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>304386</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>6408</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>291683</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>6295</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>579</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>3090660</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="15">
         <v>221788860</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="18" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>298039</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>7315</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>263745</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>26979</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>1372</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>8965165</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="15">
         <v>84532416</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="18" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="K20">
+        <v>61.78</v>
+      </c>
+      <c r="L20">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="M20" t="s">
+        <v>552</v>
+      </c>
+      <c r="N20" t="s">
+        <v>547</v>
+      </c>
+      <c r="O20">
+        <v>38.963700000000003</v>
+      </c>
+      <c r="P20">
+        <v>35.243299999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>293025</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>35658</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>215954</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>41413</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>212</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>10146324</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="15">
         <v>60442405</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="18" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="K21">
+        <v>1.3</v>
+      </c>
+      <c r="L21">
+        <v>0.8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>552</v>
+      </c>
+      <c r="N21" t="s">
+        <v>547</v>
+      </c>
+      <c r="O21">
+        <v>41.871899999999997</v>
+      </c>
+      <c r="P21">
+        <v>12.567399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>279526</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>483</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>20879</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>65906</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>1048</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>3234856</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="15">
         <v>109890105</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="18" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>269042</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>9457</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>2413</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>18285</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>237</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <v>14557136</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="15">
         <v>83841923</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="18" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="K23">
+        <v>2.6</v>
+      </c>
+      <c r="L23">
+        <v>2.5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>552</v>
+      </c>
+      <c r="N23" t="s">
+        <v>547</v>
+      </c>
+      <c r="O23">
+        <v>50.110900000000001</v>
+      </c>
+      <c r="P23">
+        <v>8.6821000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>232628</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>9222</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>166686</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>5672</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
         <v>2796924</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="15">
         <v>274140070</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="18" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="K24">
+        <v>2.13</v>
+      </c>
+      <c r="L24">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="M24" t="s">
+        <v>552</v>
+      </c>
+      <c r="N24" t="s">
+        <v>547</v>
+      </c>
+      <c r="O24">
+        <v>-0.7893</v>
+      </c>
+      <c r="P24">
+        <v>113.9213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>176933</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>1169</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>129394</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>4637</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>577</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>2931763</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <v>9197590</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>169472</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>3468</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>75486</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>90518</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>177</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>1925482</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="15">
         <v>43675866</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="18" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>140867</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>92</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>123109</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>8558</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>76</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <v>6422063</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="15">
         <v>37812954</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="18" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="K27">
+        <v>2.7</v>
+      </c>
+      <c r="L27">
+        <v>2.9</v>
+      </c>
+      <c r="M27" t="s">
+        <v>546</v>
+      </c>
+      <c r="N27" t="s">
+        <v>547</v>
+      </c>
+      <c r="O27">
+        <v>56.130400000000002</v>
+      </c>
+      <c r="P27">
+        <v>-106.3468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>129419</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>7511</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>87716</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>34192</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>71</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>282838</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="15">
         <v>11706734</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>122693</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>208</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>119613</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>2872</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>58</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <v>709132</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <v>2807805</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>122257</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>11029</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>97063</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>14165</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>375</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <v>370864</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="15">
         <v>17699585</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>10869</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>4312</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>43244</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>61134</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>460</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <v>2160669</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="15">
         <v>19209377</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="18" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="K31">
+        <v>2.6</v>
+      </c>
+      <c r="L31">
+        <v>2.5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>552</v>
+      </c>
+      <c r="N31" t="s">
+        <v>547</v>
+      </c>
+      <c r="O31">
+        <v>50.110900000000001</v>
+      </c>
+      <c r="P31">
+        <v>8.6821000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>107134</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>1671</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <v>10161</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>3853</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>221</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <v>2733455</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="15">
         <v>18824434</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>106136</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>2022</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <v>79363</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>24751</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>210</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <v>42207</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="15">
         <v>10871122</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="18" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>104138</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>2213</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>77881</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>24044</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>152</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <v>41762</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="15">
         <v>4329082</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="18" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>101641</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>5715</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <v>87158</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>8768</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>41</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="10">
         <v>135</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="15">
         <v>102738349</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="18" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>97976</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>9936</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <v>18854</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>69186</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>74</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <v>2768761</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="15">
         <v>11600514</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="18" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="K36">
+        <v>2.6</v>
+      </c>
+      <c r="L36">
+        <v>2.5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>552</v>
+      </c>
+      <c r="N36" t="s">
+        <v>547</v>
+      </c>
+      <c r="O36">
+        <v>50.110900000000001</v>
+      </c>
+      <c r="P36">
+        <v>8.6821000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>97824</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>575</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <v>87911</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>9338</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>94</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <v>695556</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="15">
         <v>4283910</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>94504</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>1714</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <v>7493</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>1786</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>261</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <v>2295811</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="15">
         <v>37003550</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I38" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="18" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>91753</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>818</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <v>84648</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>6287</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>180</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <v>309212</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="15">
         <v>5133398</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="18" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>88073</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>6266</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>66</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <v>2042887</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="15">
         <v>17143094</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="I40" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="18" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="K40">
+        <v>3.7</v>
+      </c>
+      <c r="L40">
+        <v>3.2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>552</v>
+      </c>
+      <c r="N40" t="s">
+        <v>547</v>
+      </c>
+      <c r="O40">
+        <v>52.132599999999996</v>
+      </c>
+      <c r="P40">
+        <v>5.2912999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>87885</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>5864</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>15</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <v>1393161</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="15">
         <v>10112810</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="18" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>85255</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>4634</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="10">
         <v>80456</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <v>165</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>3</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <v>160000000</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="14">
         <v>1439323776</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="18" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="K42">
+        <v>0.5</v>
+      </c>
+      <c r="L42">
+        <v>0.2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>552</v>
+      </c>
+      <c r="N42" t="s">
+        <v>547</v>
+      </c>
+      <c r="O42">
+        <v>35.861699999999999</v>
+      </c>
+      <c r="P42">
+        <v>104.19540000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>83664</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>3036</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="10">
         <v>7326</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <v>7368</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>5</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <v>283578</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="15">
         <v>17984983</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="18" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>82568</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>402</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="10">
         <v>72117</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <v>10049</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11">
+      <c r="F44" s="10"/>
+      <c r="G44" s="10">
         <v>8464974</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="15">
         <v>9915789</v>
       </c>
-      <c r="I44" s="20" t="s">
+      <c r="I44" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="J44" s="20" t="s">
+      <c r="J44" s="18" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="K44">
+        <v>1.5</v>
+      </c>
+      <c r="L44">
+        <v>1.6</v>
+      </c>
+      <c r="M44" t="s">
+        <v>546</v>
+      </c>
+      <c r="N44" t="s">
+        <v>547</v>
+      </c>
+      <c r="O44">
+        <v>23.885899999999999</v>
+      </c>
+      <c r="P44">
+        <v>45.0792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>77009</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>1473</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <v>69253</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <v>6283</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>167</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <v>1786342</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="15">
         <v>126391624</v>
       </c>
-      <c r="I45" s="20" t="s">
+      <c r="I45" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="J45" s="20" t="s">
+      <c r="J45" s="18" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="K45">
+        <v>2.8</v>
+      </c>
+      <c r="L45">
+        <v>2.8</v>
+      </c>
+      <c r="M45" t="s">
+        <v>546</v>
+      </c>
+      <c r="N45" t="s">
+        <v>547</v>
+      </c>
+      <c r="O45">
+        <v>36.204799999999999</v>
+      </c>
+      <c r="P45">
+        <v>138.25290000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>76571</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <v>2253</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <v>62725</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <v>11593</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>84</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <v>3060844</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="15">
         <v>37837563</v>
       </c>
-      <c r="I46" s="20" t="s">
+      <c r="I46" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="J46" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="K46">
+        <v>2.6</v>
+      </c>
+      <c r="L46">
+        <v>2.5</v>
+      </c>
+      <c r="M46" t="s">
+        <v>552</v>
+      </c>
+      <c r="N46" t="s">
+        <v>547</v>
+      </c>
+      <c r="O46">
+        <v>50.110900000000001</v>
+      </c>
+      <c r="P46">
+        <v>8.6821000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>74987</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>771</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="10">
         <v>72967</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <v>1249</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11">
+      <c r="F47" s="10"/>
+      <c r="G47" s="10">
         <v>1686218</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="15">
         <v>9448646</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="J47" s="20" t="s">
+      <c r="J47" s="18" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>7012</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <v>2122</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="10">
         <v>20677</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <v>47321</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>20</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="10">
         <v>165904</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="15">
         <v>9937794</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="J48" s="20" t="s">
+      <c r="J48" s="18" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>66913</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="10">
         <v>106</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="10">
         <v>27085</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <v>38768</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <v>300</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="10">
         <v>1176252</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="15">
         <v>115551504</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="J49" s="20" t="s">
+      <c r="J49" s="18" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>66396</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="10">
         <v>1888</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="10">
         <v>44794</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <v>19714</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <v>59</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="10">
         <v>2345680</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="15">
         <v>10190196</v>
       </c>
-      <c r="I50" s="20" t="s">
+      <c r="I50" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="18" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="K50">
+        <v>2.6</v>
+      </c>
+      <c r="L50">
+        <v>2.5</v>
+      </c>
+      <c r="M50" t="s">
+        <v>552</v>
+      </c>
+      <c r="N50" t="s">
+        <v>547</v>
+      </c>
+      <c r="O50">
+        <v>50.110900000000001</v>
+      </c>
+      <c r="P50">
+        <v>8.6821000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>64284</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="10">
         <v>520</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="10">
         <v>52564</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="10">
         <v>112</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <v>146</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="10">
         <v>1864663</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="15">
         <v>28418294</v>
       </c>
-      <c r="I51" s="20" t="s">
+      <c r="I51" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="J51" s="20" t="s">
+      <c r="J51" s="18" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>63189</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="10">
         <v>217</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="10">
         <v>56087</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="10">
         <v>6885</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <v>40</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="10">
         <v>1301170</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="15">
         <v>1713495</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I52" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="J52" s="20" t="s">
+      <c r="J52" s="18" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>60818</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="10">
         <v>666</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="10">
         <v>22662</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="10">
         <v>3749</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <v>245</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="10">
         <v>193045</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="15">
         <v>5104063</v>
       </c>
-      <c r="I53" s="20" t="s">
+      <c r="I53" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="J53" s="20" t="s">
+      <c r="J53" s="18" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>59573</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="10">
         <v>383</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="10">
         <v>42949</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <v>16241</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11">
+      <c r="F54" s="10"/>
+      <c r="G54" s="10">
         <v>882915</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="15">
         <v>29246701</v>
       </c>
-      <c r="I54" s="20" t="s">
+      <c r="I54" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="J54" s="20" t="s">
+      <c r="J54" s="18" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>57543</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="10">
         <v>27</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="10">
         <v>57039</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <v>477</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11">
+      <c r="F55" s="10"/>
+      <c r="G55" s="10">
         <v>2498073</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="15">
         <v>5860205</v>
       </c>
-      <c r="I55" s="20" t="s">
+      <c r="I55" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="J55" s="20" t="s">
+      <c r="J55" s="18" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="K55">
+        <v>2.4</v>
+      </c>
+      <c r="L55">
+        <v>3.1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>546</v>
+      </c>
+      <c r="N55" t="s">
+        <v>547</v>
+      </c>
+      <c r="O55">
+        <v>1.3521000000000001</v>
+      </c>
+      <c r="P55">
+        <v>103.8198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>56735</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="10">
         <v>1093</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="10">
         <v>48092</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <v>755</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <v>7</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="10">
         <v>482321</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="15">
         <v>207194373</v>
       </c>
-      <c r="I56" s="20" t="s">
+      <c r="I56" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="J56" s="20" t="s">
+      <c r="J56" s="18" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>49761</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="10">
         <v>415</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="10">
         <v>46092</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <v>3254</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <v>243</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="10">
         <v>1377915</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="15">
         <v>33571712</v>
       </c>
-      <c r="I57" s="20" t="s">
+      <c r="I57" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="J57" s="20" t="s">
+      <c r="J57" s="18" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>49194</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="10">
         <v>1654</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="10">
         <v>34675</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="10">
         <v>12865</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <v>31</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="17">
+      <c r="G58" s="10"/>
+      <c r="H58" s="15">
         <v>44017064</v>
       </c>
-      <c r="I58" s="20" t="s">
+      <c r="I58" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="J58" s="20" t="s">
+      <c r="J58" s="18" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>48795</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="10">
         <v>2042</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="10">
         <v>399</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="10">
         <v>6853</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <v>27</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="10">
         <v>1237621</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="15">
         <v>8668205</v>
       </c>
-      <c r="I59" s="20" t="s">
+      <c r="I59" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="J59" s="20" t="s">
+      <c r="J59" s="18" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="K59">
+        <v>1.3</v>
+      </c>
+      <c r="L59">
+        <v>1.3</v>
+      </c>
+      <c r="M59" t="s">
+        <v>552</v>
+      </c>
+      <c r="N59" t="s">
+        <v>547</v>
+      </c>
+      <c r="O59">
+        <v>46.818199999999997</v>
+      </c>
+      <c r="P59">
+        <v>8.2274999999999991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>4691</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="10">
         <v>926</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="10">
         <v>42369</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <v>3615</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11">
+      <c r="F60" s="10"/>
+      <c r="G60" s="10">
         <v>255927</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="15">
         <v>2964445</v>
       </c>
-      <c r="I60" s="20" t="s">
+      <c r="I60" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="J60" s="20" t="s">
+      <c r="J60" s="18" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>45714</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="10">
         <v>294</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="10">
         <v>44896</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <v>524</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <v>5</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="10">
         <v>457092</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="15">
         <v>31208065</v>
       </c>
-      <c r="I61" s="20" t="s">
+      <c r="I61" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="J61" s="20" t="s">
+      <c r="J61" s="18" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>45244</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="10">
         <v>1063</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="10">
         <v>41415</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <v>2766</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="10">
         <v>24</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="10">
         <v>267718</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="15">
         <v>6546842</v>
       </c>
-      <c r="I62" s="20" t="s">
+      <c r="I62" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="J62" s="20" t="s">
+      <c r="J62" s="18" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>44983</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="10">
         <v>117</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="10">
         <v>33239</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="10">
         <v>10574</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <v>549</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="10">
         <v>246764</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="15">
         <v>4031912</v>
       </c>
-      <c r="I63" s="20" t="s">
+      <c r="I63" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="J63" s="20" t="s">
+      <c r="J63" s="18" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>44155</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="10">
         <v>489</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="10">
         <v>23377</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="10">
         <v>20289</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <v>91</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="10">
         <v>1123221</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="15">
         <v>10713292</v>
       </c>
-      <c r="I64" s="20" t="s">
+      <c r="I64" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="J64" s="20" t="s">
+      <c r="J64" s="18" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>38883</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="10">
         <v>1437</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="10">
         <v>32576</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="10">
         <v>487</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="10">
         <v>93</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="10">
         <v>107968</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="15">
         <v>39110298</v>
       </c>
-      <c r="I65" s="20" t="s">
+      <c r="I65" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="J65" s="20" t="s">
+      <c r="J65" s="18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>38777</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="10">
         <v>571</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="10">
         <v>36289</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="10">
         <v>1917</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11">
+      <c r="F66" s="10"/>
+      <c r="G66" s="10">
         <v>1035286</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H66" s="15">
         <v>10158720</v>
       </c>
-      <c r="I66" s="20" t="s">
+      <c r="I66" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="J66" s="20" t="s">
+      <c r="J66" s="18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>36576</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="10">
         <v>642</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="10">
         <v>23611</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="10">
         <v>12323</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <v>44</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="10">
         <v>504988</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H67" s="15">
         <v>54017393</v>
       </c>
-      <c r="I67" s="20" t="s">
+      <c r="I67" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="J67" s="20" t="s">
+      <c r="J67" s="18" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>35853</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="10">
         <v>758</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="10">
         <v>28044</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="10">
         <v>7051</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="10">
         <v>55</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="10">
         <v>1395111</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H68" s="15">
         <v>9017463</v>
       </c>
-      <c r="I68" s="20" t="s">
+      <c r="I68" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="J68" s="20" t="s">
+      <c r="J68" s="18" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <v>33843</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="10">
         <v>244</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="10">
         <v>2306</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="10">
         <v>10539</v>
       </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11">
+      <c r="F69" s="10"/>
+      <c r="G69" s="10">
         <v>359873</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="15">
         <v>5125985</v>
       </c>
-      <c r="I69" s="20" t="s">
+      <c r="I69" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="J69" s="20" t="s">
+      <c r="J69" s="18" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>32695</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="10">
         <v>738</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="10">
         <v>31512</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="10">
         <v>445</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="10">
         <v>21</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="10">
         <v>1056256</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H70" s="15">
         <v>8729645</v>
       </c>
-      <c r="I70" s="20" t="s">
+      <c r="I70" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="J70" s="20" t="s">
+      <c r="J70" s="18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>32023</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="10">
         <v>1789</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="10">
         <v>23364</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="10">
         <v>687</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="10">
         <v>14</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="10">
         <v>1001647</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="15">
         <v>4949527</v>
       </c>
-      <c r="I71" s="20" t="s">
+      <c r="I71" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="J71" s="20" t="s">
+      <c r="J71" s="18" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="K71">
+        <v>2.6</v>
+      </c>
+      <c r="L71">
+        <v>2.5</v>
+      </c>
+      <c r="M71" t="s">
+        <v>552</v>
+      </c>
+      <c r="N71" t="s">
+        <v>547</v>
+      </c>
+      <c r="O71">
+        <v>50.110900000000001</v>
+      </c>
+      <c r="P71">
+        <v>8.6821000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>31113</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="10">
         <v>584</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="10">
         <v>16313</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="10">
         <v>14216</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <v>137</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="10">
         <v>241837</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H72" s="15">
         <v>7151143</v>
       </c>
-      <c r="I72" s="20" t="s">
+      <c r="I72" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="J72" s="20" t="s">
+      <c r="J72" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <v>27249</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="10">
         <v>804</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="10">
         <v>20403</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="10">
         <v>6042</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <v>93</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="10">
         <v>357309</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="15">
         <v>6493262</v>
       </c>
-      <c r="I73" s="20" t="s">
+      <c r="I73" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="J73" s="20" t="s">
+      <c r="J73" s="18" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>26861</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="10">
         <v>837</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="10">
         <v>23855</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="10">
         <v>2169</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <v>15</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="10">
         <v>7223756</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H74" s="15">
         <v>25562804</v>
       </c>
-      <c r="I74" s="20" t="s">
+      <c r="I74" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="J74" s="20" t="s">
+      <c r="J74" s="18" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="K74">
+        <v>3.8</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74" t="s">
+        <v>546</v>
+      </c>
+      <c r="N74" t="s">
+        <v>547</v>
+      </c>
+      <c r="O74">
+        <v>-25.2744</v>
+      </c>
+      <c r="P74">
+        <v>133.77510000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <v>26768</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="10">
         <v>263</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="10">
         <v>10217</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="10">
         <v>16288</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <v>128</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="10">
         <v>68921</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H75" s="15">
         <v>6818729</v>
       </c>
-      <c r="I75" s="20" t="s">
+      <c r="I75" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="J75" s="20" t="s">
+      <c r="J75" s="18" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>25822</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="10">
         <v>409</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="10">
         <v>13908</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="10">
         <v>11505</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11">
+      <c r="F76" s="10"/>
+      <c r="G76" s="10">
         <v>173161</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="15">
         <v>6891077</v>
       </c>
-      <c r="I76" s="20" t="s">
+      <c r="I76" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="J76" s="20" t="s">
+      <c r="J76" s="18" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>24605</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="10">
         <v>747</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="10">
         <v>17219</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="10">
         <v>6639</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11">
+      <c r="F77" s="10"/>
+      <c r="G77" s="10">
         <v>215696</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H77" s="15">
         <v>3276320</v>
       </c>
-      <c r="I77" s="20" t="s">
+      <c r="I77" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="J77" s="20" t="s">
+      <c r="J77" s="18" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <v>22783</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="10">
         <v>377</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="10">
         <v>19771</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="10">
         <v>2635</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="10">
         <v>150</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="10">
         <v>2206365</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H78" s="15">
         <v>51278779</v>
       </c>
-      <c r="I78" s="20" t="s">
+      <c r="I78" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="J78" s="20" t="s">
+      <c r="J78" s="18" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="K78">
+        <v>2.6</v>
+      </c>
+      <c r="L78">
+        <v>2.4</v>
+      </c>
+      <c r="M78" t="s">
+        <v>552</v>
+      </c>
+      <c r="N78" t="s">
+        <v>547</v>
+      </c>
+      <c r="O78">
+        <v>35.907800000000002</v>
+      </c>
+      <c r="P78">
+        <v>127.76690000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <v>21393</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="10">
         <v>635</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="10">
         <v>16918</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="10">
         <v>384</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="10">
         <v>3</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G79" s="10">
         <v>3191967</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H79" s="15">
         <v>5796614</v>
       </c>
-      <c r="I79" s="20" t="s">
+      <c r="I79" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="J79" s="20" t="s">
+      <c r="J79" s="18" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <v>20303</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="10">
         <v>415</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="10">
         <v>18837</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="10">
         <v>1051</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="10">
         <v>30</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G80" s="10">
         <v>149</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H80" s="15">
         <v>26682247</v>
       </c>
-      <c r="I80" s="20" t="s">
+      <c r="I80" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="J80" s="20" t="s">
+      <c r="J80" s="18" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="6">
         <v>19158</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="10">
         <v>120</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="10">
         <v>1833</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="10">
         <v>708</v>
       </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11">
+      <c r="F81" s="10"/>
+      <c r="G81" s="10">
         <v>147565</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H81" s="15">
         <v>26513133</v>
       </c>
-      <c r="I81" s="20" t="s">
+      <c r="I81" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="J81" s="20" t="s">
+      <c r="J81" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="6">
         <v>18544</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="10">
         <v>749</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="10">
         <v>13391</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="10">
         <v>4404</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="10">
         <v>37</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="10">
         <v>482823</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H82" s="15">
         <v>6936886</v>
       </c>
-      <c r="I82" s="20" t="s">
+      <c r="I82" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="J82" s="20" t="s">
+      <c r="J82" s="18" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="6">
         <v>16274</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C83" s="10">
         <v>675</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D83" s="10">
         <v>13635</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="10">
         <v>1964</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="10">
         <v>3</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="10">
         <v>171155</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H83" s="15">
         <v>2083355</v>
       </c>
-      <c r="I83" s="20" t="s">
+      <c r="I83" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="J83" s="20" t="s">
+      <c r="J83" s="18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="6">
         <v>16111</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="10">
         <v>669</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="10">
         <v>424</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="10">
         <v>11202</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="10">
         <v>29</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84" s="10">
         <v>591618</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H84" s="15">
         <v>9654982</v>
       </c>
-      <c r="I84" s="20" t="s">
+      <c r="I84" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="J84" s="20" t="s">
+      <c r="J84" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="6">
         <v>15925</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="10">
         <v>216</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="10">
         <v>14547</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E85" s="10">
         <v>1162</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="10">
         <v>25</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G85" s="10">
         <v>66036</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H85" s="15">
         <v>27837665</v>
       </c>
-      <c r="I85" s="20" t="s">
+      <c r="I85" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="J85" s="20" t="s">
+      <c r="J85" s="18" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="6">
         <v>14618</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="10">
         <v>300</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="10">
         <v>10923</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="10">
         <v>3395</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="10">
         <v>31</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86" s="10">
         <v>162811</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H86" s="15">
         <v>16834684</v>
       </c>
-      <c r="I86" s="20" t="s">
+      <c r="I86" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="J86" s="20" t="s">
+      <c r="J86" s="18" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="6">
         <v>14513</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="10">
         <v>244</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="10">
         <v>12169</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E87" s="10">
         <v>21</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="10">
         <v>21</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="10">
         <v>249023</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H87" s="15">
         <v>4099687</v>
       </c>
-      <c r="I87" s="20" t="s">
+      <c r="I87" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="J87" s="20" t="s">
+      <c r="J87" s="18" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="6">
         <v>144</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="10">
         <v>325</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="10">
         <v>3804</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E88" s="10">
         <v>10271</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F88" s="10">
         <v>69</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G88" s="10">
         <v>1170292</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H88" s="15">
         <v>10411859</v>
       </c>
-      <c r="I88" s="20" t="s">
+      <c r="I88" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="J88" s="20" t="s">
+      <c r="J88" s="18" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="6">
         <v>13928</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="10">
         <v>326</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D89" s="10">
         <v>13029</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E89" s="10">
         <v>573</v>
       </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11">
+      <c r="F89" s="10"/>
+      <c r="G89" s="10">
         <v>135021</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H89" s="15">
         <v>18489439</v>
       </c>
-      <c r="I89" s="20" t="s">
+      <c r="I89" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="J89" s="20" t="s">
+      <c r="J89" s="18" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="6">
         <v>13535</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="10">
         <v>836</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D90" s="10">
         <v>6759</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E90" s="10">
         <v>594</v>
       </c>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="17">
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="15">
         <v>44061334</v>
       </c>
-      <c r="I90" s="20" t="s">
+      <c r="I90" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="J90" s="20" t="s">
+      <c r="J90" s="18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="6">
         <v>12644</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="10">
         <v>266</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D91" s="10">
         <v>10371</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E91" s="10">
         <v>2007</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F91" s="10">
         <v>2</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G91" s="10">
         <v>928024</v>
       </c>
-      <c r="H91" s="17">
+      <c r="H91" s="15">
         <v>5430329</v>
       </c>
-      <c r="I91" s="20" t="s">
+      <c r="I91" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="J91" s="20" t="s">
+      <c r="J91" s="18" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="6">
         <v>11948</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="10">
         <v>347</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="10">
         <v>6788</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="10">
         <v>4813</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F92" s="10">
         <v>18</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G92" s="10">
         <v>72818</v>
       </c>
-      <c r="H92" s="17">
+      <c r="H92" s="15">
         <v>2877111</v>
       </c>
-      <c r="I92" s="20" t="s">
+      <c r="I92" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="J92" s="20" t="s">
+      <c r="J92" s="18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="6">
         <v>10442</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C93" s="10">
         <v>267</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D93" s="10">
         <v>984</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E93" s="10">
         <v>335</v>
       </c>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="17">
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="15">
         <v>90116049</v>
       </c>
-      <c r="I93" s="20" t="s">
+      <c r="I93" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="J93" s="20" t="s">
+      <c r="J93" s="18" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="6">
         <v>10183</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="10">
         <v>63</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D94" s="10">
         <v>9642</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="10">
         <v>478</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="10">
         <v>24</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G94" s="10">
         <v>29552</v>
       </c>
-      <c r="H94" s="17">
+      <c r="H94" s="15">
         <v>13205931</v>
       </c>
-      <c r="I94" s="20" t="s">
+      <c r="I94" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="J94" s="20" t="s">
+      <c r="J94" s="18" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="6">
         <v>10078</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C95" s="10">
         <v>108</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D95" s="10">
         <v>7685</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E95" s="10">
         <v>2285</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="10">
         <v>16</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G95" s="10">
         <v>84688</v>
       </c>
-      <c r="H95" s="17">
+      <c r="H95" s="15">
         <v>2550552</v>
       </c>
-      <c r="I95" s="20" t="s">
+      <c r="I95" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="J95" s="20" t="s">
+      <c r="J95" s="18" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="6">
         <v>10052</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="10">
         <v>128</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="10">
         <v>925</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E96" s="10">
         <v>674</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F96" s="10">
         <v>13</v>
       </c>
-      <c r="G96" s="11">
+      <c r="G96" s="10">
         <v>1417154</v>
       </c>
-      <c r="H96" s="17">
+      <c r="H96" s="15">
         <v>32453958</v>
       </c>
-      <c r="I96" s="20" t="s">
+      <c r="I96" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="J96" s="20" t="s">
+      <c r="J96" s="18" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="6">
         <v>9623</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C97" s="10">
         <v>65</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D97" s="10">
         <v>9267</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E97" s="10">
         <v>291</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F97" s="10">
         <v>4</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G97" s="10">
         <v>61471</v>
       </c>
-      <c r="H97" s="17">
+      <c r="H97" s="15">
         <v>300276</v>
       </c>
-      <c r="I97" s="20" t="s">
+      <c r="I97" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="J97" s="20" t="s">
+      <c r="J97" s="18" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="6">
         <v>9494</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="10">
         <v>33</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="10">
         <v>8033</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="10">
         <v>1428</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="10">
         <v>12</v>
       </c>
-      <c r="G98" s="11">
+      <c r="G98" s="10">
         <v>135958</v>
       </c>
-      <c r="H98" s="17">
+      <c r="H98" s="15">
         <v>542542</v>
       </c>
-      <c r="I98" s="20" t="s">
+      <c r="I98" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="J98" s="20" t="s">
+      <c r="J98" s="18" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="6">
         <v>9214</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="10">
         <v>73</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="10">
         <v>7988</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="10">
         <v>1153</v>
       </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="17">
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="15">
         <v>9582111</v>
       </c>
-      <c r="I99" s="20" t="s">
+      <c r="I99" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="J99" s="20" t="s">
+      <c r="J99" s="18" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="6">
         <v>8799</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="10">
         <v>339</v>
       </c>
-      <c r="D100" s="11">
+      <c r="D100" s="10">
         <v>77</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E100" s="10">
         <v>760</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F100" s="10">
         <v>3</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G100" s="10">
         <v>851605</v>
       </c>
-      <c r="H100" s="17">
+      <c r="H100" s="15">
         <v>5542589</v>
       </c>
-      <c r="I100" s="20" t="s">
+      <c r="I100" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="J100" s="20" t="s">
+      <c r="J100" s="18" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="6">
         <v>8678</v>
       </c>
-      <c r="C101" s="11">
+      <c r="C101" s="10">
         <v>53</v>
       </c>
-      <c r="D101" s="11">
+      <c r="D101" s="10">
         <v>7827</v>
       </c>
-      <c r="E101" s="11">
+      <c r="E101" s="10">
         <v>798</v>
       </c>
-      <c r="F101" s="11">
+      <c r="F101" s="10">
         <v>5</v>
       </c>
-      <c r="G101" s="11">
+      <c r="G101" s="10">
         <v>143996</v>
       </c>
-      <c r="H101" s="17">
+      <c r="H101" s="15">
         <v>2236606</v>
       </c>
-      <c r="I101" s="20" t="s">
+      <c r="I101" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="J101" s="20" t="s">
+      <c r="J101" s="18" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="6">
         <v>857</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="10">
         <v>133</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D102" s="10">
         <v>2342</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102" s="10">
         <v>6095</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F102" s="10">
         <v>47</v>
       </c>
-      <c r="G102" s="11">
+      <c r="G102" s="10">
         <v>179035</v>
       </c>
-      <c r="H102" s="17">
+      <c r="H102" s="15">
         <v>11844983</v>
       </c>
-      <c r="I102" s="20" t="s">
+      <c r="I102" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="J102" s="20" t="s">
+      <c r="J102" s="18" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="6">
         <v>8556</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="10">
         <v>220</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D103" s="10">
         <v>6315</v>
       </c>
-      <c r="E103" s="11">
+      <c r="E103" s="10">
         <v>2021</v>
       </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11">
+      <c r="F103" s="10"/>
+      <c r="G103" s="10">
         <v>25752</v>
       </c>
-      <c r="H103" s="17">
+      <c r="H103" s="15">
         <v>11432052</v>
       </c>
-      <c r="I103" s="20" t="s">
+      <c r="I103" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="J103" s="20" t="s">
+      <c r="J103" s="18" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="6">
         <v>7633</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="10">
         <v>224</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D104" s="10">
         <v>5841</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="10">
         <v>1568</v>
       </c>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11">
+      <c r="F104" s="10"/>
+      <c r="G104" s="10">
         <v>157144</v>
       </c>
-      <c r="H104" s="17">
+      <c r="H104" s="15">
         <v>14908642</v>
       </c>
-      <c r="I104" s="20" t="s">
+      <c r="I104" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="J104" s="20" t="s">
+      <c r="J104" s="18" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="6">
         <v>7541</v>
       </c>
-      <c r="C105" s="11">
+      <c r="C105" s="10">
         <v>124</v>
       </c>
-      <c r="D105" s="11">
+      <c r="D105" s="10">
         <v>6641</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E105" s="10">
         <v>776</v>
       </c>
-      <c r="F105" s="11">
+      <c r="F105" s="10">
         <v>1</v>
       </c>
-      <c r="G105" s="11">
+      <c r="G105" s="10">
         <v>767693</v>
       </c>
-      <c r="H105" s="17">
+      <c r="H105" s="15">
         <v>628122</v>
       </c>
-      <c r="I105" s="20" t="s">
+      <c r="I105" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="J105" s="20" t="s">
+      <c r="J105" s="18" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="6">
         <v>7503</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="10">
         <v>129</v>
       </c>
-      <c r="D106" s="11">
+      <c r="D106" s="10">
         <v>4892</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E106" s="10">
         <v>2482</v>
       </c>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11">
+      <c r="F106" s="10"/>
+      <c r="G106" s="10">
         <v>60011</v>
       </c>
-      <c r="H106" s="17">
+      <c r="H106" s="15">
         <v>628083</v>
       </c>
-      <c r="I106" s="20" t="s">
+      <c r="I106" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="J106" s="20" t="s">
+      <c r="J106" s="18" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="6">
         <v>7346</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C107" s="10">
         <v>161</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D107" s="10">
         <v>6865</v>
       </c>
-      <c r="E107" s="11">
+      <c r="E107" s="10">
         <v>320</v>
       </c>
-      <c r="F107" s="11">
+      <c r="F107" s="10">
         <v>3</v>
       </c>
-      <c r="G107" s="11">
+      <c r="G107" s="10">
         <v>77298</v>
       </c>
-      <c r="H107" s="17">
+      <c r="H107" s="15">
         <v>4674801</v>
       </c>
-      <c r="I107" s="20" t="s">
+      <c r="I107" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="J107" s="20" t="s">
+      <c r="J107" s="18" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="6">
         <v>6256</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C108" s="10">
         <v>39</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D108" s="10">
         <v>339</v>
       </c>
-      <c r="E108" s="11">
+      <c r="E108" s="10">
         <v>2827</v>
       </c>
-      <c r="F108" s="11">
+      <c r="F108" s="10">
         <v>22</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G108" s="10">
         <v>403055</v>
       </c>
-      <c r="H108" s="17">
+      <c r="H108" s="15">
         <v>5460217</v>
       </c>
-      <c r="I108" s="20" t="s">
+      <c r="I108" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="J108" s="20" t="s">
+      <c r="J108" s="18" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="6">
         <v>6161</v>
       </c>
-      <c r="C109" s="11">
+      <c r="C109" s="10">
         <v>39</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D109" s="10">
         <v>3393</v>
       </c>
-      <c r="E109" s="11">
+      <c r="E109" s="10">
         <v>2729</v>
       </c>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11">
+      <c r="F109" s="10"/>
+      <c r="G109" s="10">
         <v>119689</v>
       </c>
-      <c r="H109" s="17">
+      <c r="H109" s="15">
         <v>31434838</v>
       </c>
-      <c r="I109" s="20" t="s">
+      <c r="I109" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="J109" s="20" t="s">
+      <c r="J109" s="18" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="6">
         <v>5711</v>
       </c>
-      <c r="C110" s="11">
+      <c r="C110" s="10">
         <v>179</v>
       </c>
-      <c r="D110" s="11">
+      <c r="D110" s="10">
         <v>4</v>
       </c>
-      <c r="E110" s="11">
+      <c r="E110" s="10">
         <v>1532</v>
       </c>
-      <c r="F110" s="11">
+      <c r="F110" s="10">
         <v>4</v>
       </c>
-      <c r="G110" s="11">
+      <c r="G110" s="10">
         <v>49341</v>
       </c>
-      <c r="H110" s="17">
+      <c r="H110" s="15">
         <v>19231751</v>
       </c>
-      <c r="I110" s="20" t="s">
+      <c r="I110" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="J110" s="20" t="s">
+      <c r="J110" s="18" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="6">
         <v>5399</v>
       </c>
-      <c r="C111" s="11">
+      <c r="C111" s="10">
         <v>61</v>
       </c>
-      <c r="D111" s="11">
+      <c r="D111" s="10">
         <v>5333</v>
       </c>
-      <c r="E111" s="11">
+      <c r="E111" s="10">
         <v>5</v>
       </c>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11">
+      <c r="F111" s="10"/>
+      <c r="G111" s="10">
         <v>73416</v>
       </c>
-      <c r="H111" s="17">
+      <c r="H111" s="15">
         <v>991036</v>
       </c>
-      <c r="I111" s="20" t="s">
+      <c r="I111" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="J111" s="18" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="6">
         <v>538</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C112" s="10">
         <v>60</v>
       </c>
-      <c r="D112" s="11">
+      <c r="D112" s="10">
         <v>2489</v>
       </c>
-      <c r="E112" s="11">
+      <c r="E112" s="10">
         <v>2831</v>
       </c>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11">
+      <c r="F112" s="10"/>
+      <c r="G112" s="10">
         <v>44171</v>
       </c>
-      <c r="H112" s="17">
+      <c r="H112" s="15">
         <v>46034419</v>
       </c>
-      <c r="I112" s="20" t="s">
+      <c r="I112" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="J112" s="20" t="s">
+      <c r="J112" s="18" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="6">
         <v>5002</v>
       </c>
-      <c r="C113" s="11">
+      <c r="C113" s="10">
         <v>83</v>
       </c>
-      <c r="D113" s="11">
+      <c r="D113" s="10">
         <v>4509</v>
       </c>
-      <c r="E113" s="11">
+      <c r="E113" s="10">
         <v>410</v>
       </c>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11">
+      <c r="F113" s="10"/>
+      <c r="G113" s="10">
         <v>57119</v>
       </c>
-      <c r="H113" s="17">
+      <c r="H113" s="15">
         <v>1412318</v>
       </c>
-      <c r="I113" s="20" t="s">
+      <c r="I113" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="J113" s="20" t="s">
+      <c r="J113" s="18" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="6">
         <v>4994</v>
       </c>
-      <c r="C114" s="11">
+      <c r="C114" s="10">
         <v>102</v>
       </c>
-      <c r="D114" s="11">
+      <c r="D114" s="10">
         <v>4682</v>
       </c>
-      <c r="E114" s="11">
+      <c r="E114" s="10">
         <v>210</v>
       </c>
-      <c r="F114" s="11">
+      <c r="F114" s="10">
         <v>14</v>
       </c>
-      <c r="G114" s="11">
+      <c r="G114" s="10">
         <v>2783134</v>
       </c>
-      <c r="H114" s="17">
+      <c r="H114" s="15">
         <v>7510012</v>
       </c>
-      <c r="I114" s="20" t="s">
+      <c r="I114" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="J114" s="20" t="s">
+      <c r="J114" s="18" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="6">
         <v>4961</v>
       </c>
-      <c r="C115" s="11">
+      <c r="C115" s="10">
         <v>147</v>
       </c>
-      <c r="D115" s="11">
+      <c r="D115" s="10">
         <v>2913</v>
       </c>
-      <c r="E115" s="11">
+      <c r="E115" s="10">
         <v>1901</v>
       </c>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="17">
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="15">
         <v>6641305</v>
       </c>
-      <c r="I115" s="20" t="s">
+      <c r="I115" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="J115" s="20" t="s">
+      <c r="J115" s="18" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="6">
         <v>4934</v>
       </c>
-      <c r="C116" s="11">
+      <c r="C116" s="10">
         <v>88</v>
       </c>
-      <c r="D116" s="11">
+      <c r="D116" s="10">
         <v>3887</v>
       </c>
-      <c r="E116" s="11">
+      <c r="E116" s="10">
         <v>959</v>
       </c>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="17">
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="15">
         <v>5546138</v>
       </c>
-      <c r="I116" s="20" t="s">
+      <c r="I116" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="J116" s="20" t="s">
+      <c r="J116" s="18" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="6">
         <v>4933</v>
       </c>
-      <c r="C117" s="11">
+      <c r="C117" s="10">
         <v>109</v>
       </c>
-      <c r="D117" s="11">
+      <c r="D117" s="10">
         <v>423</v>
       </c>
-      <c r="E117" s="11">
+      <c r="E117" s="10">
         <v>594</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F117" s="10">
         <v>20</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G117" s="10">
         <v>515969</v>
       </c>
-      <c r="H117" s="17">
+      <c r="H117" s="15">
         <v>11325108</v>
       </c>
-      <c r="I117" s="20" t="s">
+      <c r="I117" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="J117" s="20" t="s">
+      <c r="J117" s="18" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="6">
         <v>4782</v>
       </c>
-      <c r="C118" s="11">
+      <c r="C118" s="10">
         <v>62</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D118" s="10">
         <v>183</v>
       </c>
-      <c r="E118" s="11">
+      <c r="E118" s="10">
         <v>289</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F118" s="10">
         <v>2</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G118" s="10">
         <v>31677</v>
       </c>
-      <c r="H118" s="17">
+      <c r="H118" s="15">
         <v>4847400</v>
       </c>
-      <c r="I118" s="20" t="s">
+      <c r="I118" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="J118" s="20" t="s">
+      <c r="J118" s="18" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="6">
         <v>4671</v>
       </c>
-      <c r="C119" s="11">
+      <c r="C119" s="10">
         <v>95</v>
       </c>
-      <c r="D119" s="11">
+      <c r="D119" s="10">
         <v>416</v>
       </c>
-      <c r="E119" s="11">
+      <c r="E119" s="10">
         <v>416</v>
       </c>
-      <c r="F119" s="11">
+      <c r="F119" s="10">
         <v>7</v>
       </c>
-      <c r="G119" s="11">
+      <c r="G119" s="10">
         <v>12462</v>
       </c>
-      <c r="H119" s="17">
+      <c r="H119" s="15">
         <v>587756</v>
       </c>
-      <c r="I119" s="20" t="s">
+      <c r="I119" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="J119" s="20" t="s">
+      <c r="J119" s="18" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="6">
         <v>4653</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C120" s="10">
         <v>23</v>
       </c>
-      <c r="D120" s="11">
+      <c r="D120" s="10">
         <v>2817</v>
       </c>
-      <c r="E120" s="11">
+      <c r="E120" s="10">
         <v>1813</v>
       </c>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11">
+      <c r="F120" s="10"/>
+      <c r="G120" s="10">
         <v>470218</v>
       </c>
-      <c r="H120" s="17">
+      <c r="H120" s="15">
         <v>13018502</v>
       </c>
-      <c r="I120" s="20" t="s">
+      <c r="I120" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="J120" s="20" t="s">
+      <c r="J120" s="18" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="6">
         <v>4374</v>
       </c>
-      <c r="C121" s="11">
+      <c r="C121" s="10">
         <v>51</v>
       </c>
-      <c r="D121" s="11">
+      <c r="D121" s="10">
         <v>1225</v>
       </c>
-      <c r="E121" s="11">
+      <c r="E121" s="10">
         <v>3098</v>
       </c>
-      <c r="F121" s="11">
+      <c r="F121" s="10">
         <v>8</v>
       </c>
-      <c r="G121" s="11">
+      <c r="G121" s="10">
         <v>70077</v>
       </c>
-      <c r="H121" s="17">
+      <c r="H121" s="15">
         <v>2963958</v>
       </c>
-      <c r="I121" s="20" t="s">
+      <c r="I121" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="J121" s="20" t="s">
+      <c r="J121" s="18" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="6">
         <v>4299</v>
       </c>
-      <c r="C122" s="11">
+      <c r="C122" s="10">
         <v>61</v>
       </c>
-      <c r="D122" s="11">
+      <c r="D122" s="10">
         <v>944</v>
       </c>
-      <c r="E122" s="11">
+      <c r="E122" s="10">
         <v>3294</v>
       </c>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11">
+      <c r="F122" s="10"/>
+      <c r="G122" s="10">
         <v>191696</v>
       </c>
-      <c r="H122" s="17">
+      <c r="H122" s="15">
         <v>54488177</v>
       </c>
-      <c r="I122" s="20" t="s">
+      <c r="I122" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="J122" s="20" t="s">
+      <c r="J122" s="18" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="6">
         <v>4131</v>
       </c>
-      <c r="C123" s="11">
+      <c r="C123" s="10">
         <v>26</v>
       </c>
-      <c r="D123" s="11">
+      <c r="D123" s="10">
         <v>2415</v>
       </c>
-      <c r="E123" s="11">
+      <c r="E123" s="10">
         <v>169</v>
       </c>
-      <c r="F123" s="11">
+      <c r="F123" s="10">
         <v>13</v>
       </c>
-      <c r="G123" s="11">
+      <c r="G123" s="10">
         <v>1033934</v>
       </c>
-      <c r="H123" s="17">
+      <c r="H123" s="15">
         <v>10224752</v>
       </c>
-      <c r="I123" s="20" t="s">
+      <c r="I123" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="J123" s="20" t="s">
+      <c r="J123" s="18" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="6">
         <v>4058</v>
       </c>
-      <c r="C124" s="11">
+      <c r="C124" s="10">
         <v>136</v>
       </c>
-      <c r="D124" s="11">
+      <c r="D124" s="10">
         <v>2897</v>
       </c>
-      <c r="E124" s="11">
+      <c r="E124" s="10">
         <v>1025</v>
       </c>
-      <c r="F124" s="11">
+      <c r="F124" s="10">
         <v>11</v>
       </c>
-      <c r="G124" s="11">
+      <c r="G124" s="10">
         <v>192781</v>
       </c>
-      <c r="H124" s="17">
+      <c r="H124" s="15">
         <v>2079000</v>
       </c>
-      <c r="I124" s="20" t="s">
+      <c r="I124" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="J124" s="20" t="s">
+      <c r="J124" s="18" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="6">
         <v>3789</v>
       </c>
-      <c r="C125" s="11">
+      <c r="C125" s="10">
         <v>144</v>
       </c>
-      <c r="D125" s="11">
+      <c r="D125" s="10">
         <v>1405</v>
       </c>
-      <c r="E125" s="11">
+      <c r="E125" s="10">
         <v>224</v>
       </c>
-      <c r="F125" s="11">
+      <c r="F125" s="10">
         <v>16</v>
       </c>
-      <c r="G125" s="11">
+      <c r="G125" s="10">
         <v>65951</v>
       </c>
-      <c r="H125" s="17">
+      <c r="H125" s="15">
         <v>33074172</v>
       </c>
-      <c r="I125" s="20" t="s">
+      <c r="I125" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="J125" s="20" t="s">
+      <c r="J125" s="18" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="6">
         <v>3691</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C126" s="10">
         <v>165</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D126" s="10">
         <v>903</v>
       </c>
-      <c r="E126" s="11">
+      <c r="E126" s="10">
         <v>2623</v>
       </c>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="17">
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="15">
         <v>17588527</v>
       </c>
-      <c r="I126" s="20" t="s">
+      <c r="I126" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="J126" s="20" t="s">
+      <c r="J126" s="18" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="6">
         <v>3565</v>
       </c>
-      <c r="C127" s="11">
+      <c r="C127" s="10">
         <v>87</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D127" s="10">
         <v>2181</v>
       </c>
-      <c r="E127" s="11">
+      <c r="E127" s="10">
         <v>1297</v>
       </c>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11">
+      <c r="F127" s="10"/>
+      <c r="G127" s="10">
         <v>716972</v>
       </c>
-      <c r="H127" s="17">
+      <c r="H127" s="15">
         <v>2713795</v>
       </c>
-      <c r="I127" s="20" t="s">
+      <c r="I127" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="J127" s="20" t="s">
+      <c r="J127" s="18" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="6">
         <v>3541</v>
       </c>
-      <c r="C128" s="11">
+      <c r="C128" s="10">
         <v>40</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D128" s="10">
         <v>2964</v>
       </c>
-      <c r="E128" s="11">
+      <c r="E128" s="10">
         <v>537</v>
       </c>
-      <c r="F128" s="11">
+      <c r="F128" s="10">
         <v>2</v>
       </c>
-      <c r="G128" s="11">
+      <c r="G128" s="10">
         <v>13</v>
       </c>
-      <c r="H128" s="17">
+      <c r="H128" s="15">
         <v>274176</v>
       </c>
-      <c r="I128" s="20" t="s">
+      <c r="I128" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="J128" s="20" t="s">
+      <c r="J128" s="18" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="6">
         <v>3497</v>
       </c>
-      <c r="C129" s="11">
+      <c r="C129" s="10">
         <v>58</v>
       </c>
-      <c r="D129" s="11">
+      <c r="D129" s="10">
         <v>3328</v>
       </c>
-      <c r="E129" s="11">
+      <c r="E129" s="10">
         <v>111</v>
       </c>
-      <c r="F129" s="11">
+      <c r="F129" s="10">
         <v>1</v>
       </c>
-      <c r="G129" s="11">
+      <c r="G129" s="10">
         <v>749213</v>
       </c>
-      <c r="H129" s="17">
+      <c r="H129" s="15">
         <v>69837937</v>
       </c>
-      <c r="I129" s="20" t="s">
+      <c r="I129" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="J129" s="20" t="s">
+      <c r="J129" s="18" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="6">
         <v>3473</v>
       </c>
-      <c r="C130" s="11">
+      <c r="C130" s="10">
         <v>107</v>
       </c>
-      <c r="D130" s="11">
+      <c r="D130" s="10">
         <v>1951</v>
       </c>
-      <c r="E130" s="11">
+      <c r="E130" s="10">
         <v>1415</v>
       </c>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11">
+      <c r="F130" s="10"/>
+      <c r="G130" s="10">
         <v>14554</v>
       </c>
-      <c r="H130" s="17">
+      <c r="H130" s="15">
         <v>2430575</v>
       </c>
-      <c r="I130" s="20" t="s">
+      <c r="I130" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="J130" s="20" t="s">
+      <c r="J130" s="18" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="6">
         <v>3434</v>
       </c>
-      <c r="C131" s="11">
+      <c r="C131" s="10">
         <v>60</v>
       </c>
-      <c r="D131" s="11">
+      <c r="D131" s="10">
         <v>1469</v>
       </c>
-      <c r="E131" s="11">
+      <c r="E131" s="10">
         <v>1905</v>
       </c>
-      <c r="F131" s="11">
+      <c r="F131" s="10">
         <v>6</v>
       </c>
-      <c r="G131" s="11">
+      <c r="G131" s="10">
         <v>28493</v>
       </c>
-      <c r="H131" s="17">
+      <c r="H131" s="15">
         <v>1400469</v>
       </c>
-      <c r="I131" s="20" t="s">
+      <c r="I131" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="J131" s="20" t="s">
+      <c r="J131" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="6">
         <v>3426</v>
       </c>
-      <c r="C132" s="11">
+      <c r="C132" s="10">
         <v>26</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D132" s="10">
         <v>837</v>
       </c>
-      <c r="E132" s="11">
+      <c r="E132" s="10">
         <v>2563</v>
       </c>
-      <c r="F132" s="11">
+      <c r="F132" s="10">
         <v>28</v>
       </c>
-      <c r="G132" s="11">
+      <c r="G132" s="10">
         <v>38505</v>
       </c>
-      <c r="H132" s="17">
+      <c r="H132" s="15">
         <v>400139</v>
       </c>
-      <c r="I132" s="20" t="s">
+      <c r="I132" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="J132" s="20" t="s">
+      <c r="J132" s="18" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="6">
         <v>339</v>
       </c>
-      <c r="C133" s="11">
+      <c r="C133" s="10">
         <v>98</v>
       </c>
-      <c r="D133" s="11">
+      <c r="D133" s="10">
         <v>2812</v>
       </c>
-      <c r="E133" s="11">
+      <c r="E133" s="10">
         <v>480</v>
       </c>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="17">
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="15">
         <v>15984091</v>
       </c>
-      <c r="I133" s="20" t="s">
+      <c r="I133" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="J133" s="20" t="s">
+      <c r="J133" s="18" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B134" s="6">
         <v>3382</v>
       </c>
-      <c r="C134" s="11">
+      <c r="C134" s="10">
         <v>23</v>
       </c>
-      <c r="D134" s="11">
+      <c r="D134" s="10">
         <v>1742</v>
       </c>
-      <c r="E134" s="11">
+      <c r="E134" s="10">
         <v>1617</v>
       </c>
-      <c r="F134" s="11">
+      <c r="F134" s="10">
         <v>11</v>
       </c>
-      <c r="G134" s="11">
+      <c r="G134" s="10">
         <v>27347</v>
       </c>
-      <c r="H134" s="17">
+      <c r="H134" s="15">
         <v>106864</v>
       </c>
-      <c r="I134" s="20" t="s">
+      <c r="I134" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="J134" s="20" t="s">
+      <c r="J134" s="18" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B135" s="6">
         <v>3276</v>
       </c>
-      <c r="C135" s="11">
+      <c r="C135" s="10">
         <v>13</v>
       </c>
-      <c r="D135" s="11">
+      <c r="D135" s="10">
         <v>3043</v>
       </c>
-      <c r="E135" s="11">
+      <c r="E135" s="10">
         <v>220</v>
       </c>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11">
+      <c r="F135" s="10"/>
+      <c r="G135" s="10">
         <v>262378</v>
       </c>
-      <c r="H135" s="17">
+      <c r="H135" s="15">
         <v>21432641</v>
       </c>
-      <c r="I135" s="20" t="s">
+      <c r="I135" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="J135" s="20" t="s">
+      <c r="J135" s="18" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136" s="6">
         <v>3177</v>
       </c>
-      <c r="C136" s="11">
+      <c r="C136" s="10">
         <v>69</v>
       </c>
-      <c r="D136" s="11">
+      <c r="D136" s="10">
         <v>1626</v>
       </c>
-      <c r="E136" s="11">
+      <c r="E136" s="10">
         <v>1482</v>
       </c>
-      <c r="F136" s="11">
+      <c r="F136" s="10">
         <v>65</v>
       </c>
-      <c r="G136" s="11">
+      <c r="G136" s="10">
         <v>16386</v>
       </c>
-      <c r="H136" s="17">
+      <c r="H136" s="15">
         <v>394047</v>
       </c>
-      <c r="I136" s="20" t="s">
+      <c r="I136" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="J136" s="20" t="s">
+      <c r="J136" s="18" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B137" s="7">
+      <c r="B137" s="6">
         <v>3119</v>
       </c>
-      <c r="C137" s="11">
+      <c r="C137" s="10">
         <v>19</v>
       </c>
-      <c r="D137" s="11">
+      <c r="D137" s="10">
         <v>1435</v>
       </c>
-      <c r="E137" s="11">
+      <c r="E137" s="10">
         <v>1665</v>
       </c>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11">
+      <c r="F137" s="10"/>
+      <c r="G137" s="10">
         <v>51759</v>
       </c>
-      <c r="H137" s="17">
+      <c r="H137" s="15">
         <v>3987493</v>
       </c>
-      <c r="I137" s="20" t="s">
+      <c r="I137" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="J137" s="20" t="s">
+      <c r="J137" s="18" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B138" s="6">
         <v>3099</v>
       </c>
-      <c r="C138" s="11">
+      <c r="C138" s="10">
         <v>15</v>
       </c>
-      <c r="D138" s="11">
+      <c r="D138" s="10">
         <v>1794</v>
       </c>
-      <c r="E138" s="11">
+      <c r="E138" s="10">
         <v>129</v>
       </c>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11">
+      <c r="F138" s="10"/>
+      <c r="G138" s="10">
         <v>35419</v>
       </c>
-      <c r="H138" s="17">
+      <c r="H138" s="15">
         <v>896684</v>
       </c>
-      <c r="I138" s="20" t="s">
+      <c r="I138" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="J138" s="20" t="s">
+      <c r="J138" s="18" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="6">
         <v>2966</v>
       </c>
-      <c r="C139" s="11">
+      <c r="C139" s="10">
         <v>128</v>
       </c>
-      <c r="D139" s="11">
+      <c r="D139" s="10">
         <v>2311</v>
       </c>
-      <c r="E139" s="11">
+      <c r="E139" s="10">
         <v>527</v>
       </c>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11">
+      <c r="F139" s="10"/>
+      <c r="G139" s="10">
         <v>46993</v>
       </c>
-      <c r="H139" s="17">
+      <c r="H139" s="15">
         <v>20370108</v>
       </c>
-      <c r="I139" s="20" t="s">
+      <c r="I139" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="J139" s="20" t="s">
+      <c r="J139" s="18" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="6">
         <v>2814</v>
       </c>
-      <c r="C140" s="11">
+      <c r="C140" s="10">
         <v>64</v>
       </c>
-      <c r="D140" s="11">
+      <c r="D140" s="10">
         <v>2357</v>
       </c>
-      <c r="E140" s="11">
+      <c r="E140" s="10">
         <v>393</v>
       </c>
-      <c r="F140" s="11">
+      <c r="F140" s="10">
         <v>3</v>
       </c>
-      <c r="G140" s="11">
+      <c r="G140" s="10">
         <v>182635</v>
       </c>
-      <c r="H140" s="17">
+      <c r="H140" s="15">
         <v>1326729</v>
       </c>
-      <c r="I140" s="20" t="s">
+      <c r="I140" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="J140" s="20" t="s">
+      <c r="J140" s="18" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141" s="6">
         <v>2595</v>
       </c>
-      <c r="C141" s="11">
+      <c r="C141" s="10">
         <v>16</v>
       </c>
-      <c r="D141" s="11">
+      <c r="D141" s="10">
         <v>1978</v>
       </c>
-      <c r="E141" s="11">
+      <c r="E141" s="10">
         <v>601</v>
       </c>
-      <c r="F141" s="11">
+      <c r="F141" s="10">
         <v>2</v>
       </c>
-      <c r="G141" s="11">
+      <c r="G141" s="10">
         <v>223698</v>
       </c>
-      <c r="H141" s="17">
+      <c r="H141" s="15">
         <v>441798</v>
       </c>
-      <c r="I141" s="20" t="s">
+      <c r="I141" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="J141" s="20" t="s">
+      <c r="J141" s="18" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B142" s="7">
+      <c r="B142" s="6">
         <v>2567</v>
       </c>
-      <c r="C142" s="11">
+      <c r="C142" s="10">
         <v>13</v>
       </c>
-      <c r="D142" s="11">
+      <c r="D142" s="10">
         <v>624</v>
       </c>
-      <c r="E142" s="11">
+      <c r="E142" s="10">
         <v>193</v>
       </c>
-      <c r="F142" s="11">
+      <c r="F142" s="10">
         <v>1</v>
       </c>
-      <c r="G142" s="11">
+      <c r="G142" s="10">
         <v>156054</v>
       </c>
-      <c r="H142" s="17">
+      <c r="H142" s="15">
         <v>2361534</v>
       </c>
-      <c r="I142" s="20" t="s">
+      <c r="I142" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="J142" s="20" t="s">
+      <c r="J142" s="18" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="6">
         <v>228</v>
       </c>
-      <c r="C143" s="11">
+      <c r="C143" s="10">
         <v>40</v>
       </c>
-      <c r="D143" s="11">
+      <c r="D143" s="10">
         <v>195</v>
       </c>
-      <c r="E143" s="11">
+      <c r="E143" s="10">
         <v>290</v>
       </c>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11">
+      <c r="F143" s="10"/>
+      <c r="G143" s="10">
         <v>169063</v>
       </c>
-      <c r="H143" s="17">
+      <c r="H143" s="15">
         <v>12188538</v>
       </c>
-      <c r="I143" s="20" t="s">
+      <c r="I143" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="J143" s="20" t="s">
+      <c r="J143" s="18" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144" s="6">
         <v>2275</v>
       </c>
-      <c r="C144" s="11">
+      <c r="C144" s="10">
         <v>39</v>
       </c>
-      <c r="D144" s="11">
+      <c r="D144" s="10">
         <v>1127</v>
       </c>
-      <c r="E144" s="11">
+      <c r="E144" s="10">
         <v>1109</v>
       </c>
-      <c r="F144" s="11">
+      <c r="F144" s="10">
         <v>5</v>
       </c>
-      <c r="G144" s="11"/>
-      <c r="H144" s="17">
+      <c r="G144" s="10"/>
+      <c r="H144" s="15">
         <v>1977629</v>
       </c>
-      <c r="I144" s="20" t="s">
+      <c r="I144" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="J144" s="20" t="s">
+      <c r="J144" s="18" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B145" s="6">
         <v>2206</v>
       </c>
-      <c r="C145" s="11">
+      <c r="C145" s="10">
         <v>10</v>
       </c>
-      <c r="D145" s="11">
+      <c r="D145" s="10">
         <v>2112</v>
       </c>
-      <c r="E145" s="11">
+      <c r="E145" s="10">
         <v>84</v>
       </c>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11">
+      <c r="F145" s="10"/>
+      <c r="G145" s="10">
         <v>242177</v>
       </c>
-      <c r="H145" s="17">
+      <c r="H145" s="15">
         <v>341719</v>
       </c>
-      <c r="I145" s="20" t="s">
+      <c r="I145" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="J145" s="20" t="s">
+      <c r="J145" s="18" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146" s="6">
         <v>2133</v>
       </c>
-      <c r="C146" s="11">
+      <c r="C146" s="10">
         <v>72</v>
       </c>
-      <c r="D146" s="11">
+      <c r="D146" s="10">
         <v>1646</v>
       </c>
-      <c r="E146" s="11">
+      <c r="E146" s="10">
         <v>415</v>
       </c>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="17">
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="15">
         <v>8010819</v>
       </c>
-      <c r="I146" s="20" t="s">
+      <c r="I146" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="J146" s="20" t="s">
+      <c r="J146" s="18" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147" s="6">
         <v>2027</v>
       </c>
-      <c r="C147" s="11">
+      <c r="C147" s="10">
         <v>60</v>
       </c>
-      <c r="D147" s="11">
+      <c r="D147" s="10">
         <v>1302</v>
       </c>
-      <c r="E147" s="11">
+      <c r="E147" s="10">
         <v>665</v>
       </c>
-      <c r="F147" s="11">
+      <c r="F147" s="10">
         <v>16</v>
       </c>
-      <c r="G147" s="11">
+      <c r="G147" s="10">
         <v>11511</v>
       </c>
-      <c r="H147" s="17">
+      <c r="H147" s="15">
         <v>787371</v>
       </c>
-      <c r="I147" s="20" t="s">
+      <c r="I147" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="J147" s="20" t="s">
+      <c r="J147" s="18" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148" s="6">
         <v>2022</v>
       </c>
-      <c r="C148" s="11">
+      <c r="C148" s="10">
         <v>585</v>
       </c>
-      <c r="D148" s="11">
+      <c r="D148" s="10">
         <v>1221</v>
       </c>
-      <c r="E148" s="11">
+      <c r="E148" s="10">
         <v>216</v>
       </c>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="17">
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="15">
         <v>29962452</v>
       </c>
-      <c r="I148" s="20" t="s">
+      <c r="I148" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="J148" s="20" t="s">
+      <c r="J148" s="18" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B149" s="6">
         <v>1876</v>
       </c>
-      <c r="C149" s="11">
+      <c r="C149" s="10">
         <v>46</v>
       </c>
-      <c r="D149" s="11">
+      <c r="D149" s="10">
         <v>1582</v>
       </c>
-      <c r="E149" s="11">
+      <c r="E149" s="10">
         <v>248</v>
       </c>
-      <c r="F149" s="11"/>
-      <c r="G149" s="11">
+      <c r="F149" s="10"/>
+      <c r="G149" s="10">
         <v>208293</v>
       </c>
-      <c r="H149" s="17">
+      <c r="H149" s="15">
         <v>3476334</v>
       </c>
-      <c r="I149" s="20" t="s">
+      <c r="I149" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="J149" s="20" t="s">
+      <c r="J149" s="18" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B150" s="7">
+      <c r="B150" s="6">
         <v>1809</v>
       </c>
-      <c r="C150" s="11">
+      <c r="C150" s="10">
         <v>25</v>
       </c>
-      <c r="D150" s="11">
+      <c r="D150" s="10">
         <v>1714</v>
       </c>
-      <c r="E150" s="11">
+      <c r="E150" s="10">
         <v>70</v>
       </c>
-      <c r="F150" s="11">
+      <c r="F150" s="10">
         <v>4</v>
       </c>
-      <c r="G150" s="11">
+      <c r="G150" s="10">
         <v>897077</v>
       </c>
-      <c r="H150" s="15">
+      <c r="H150" s="14">
         <v>5002100</v>
       </c>
-      <c r="I150" s="20" t="s">
+      <c r="I150" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="J150" s="20" t="s">
+      <c r="J150" s="18" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B151" s="6">
         <v>1767</v>
       </c>
-      <c r="C151" s="11">
+      <c r="C151" s="10">
         <v>56</v>
       </c>
-      <c r="D151" s="11">
+      <c r="D151" s="10">
         <v>1166</v>
       </c>
-      <c r="E151" s="11">
+      <c r="E151" s="10">
         <v>545</v>
       </c>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="17">
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="15">
         <v>21020871</v>
       </c>
-      <c r="I151" s="20" t="s">
+      <c r="I151" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="J151" s="20" t="s">
+      <c r="J151" s="18" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="6">
         <v>1618</v>
       </c>
-      <c r="C152" s="11">
+      <c r="C152" s="10">
         <v>41</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D152" s="10">
         <v>1243</v>
       </c>
-      <c r="E152" s="11">
+      <c r="E152" s="10">
         <v>334</v>
       </c>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11">
+      <c r="F152" s="10"/>
+      <c r="G152" s="10">
         <v>80522</v>
       </c>
-      <c r="H152" s="17">
+      <c r="H152" s="15">
         <v>8318907</v>
       </c>
-      <c r="I152" s="20" t="s">
+      <c r="I152" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="J152" s="20" t="s">
+      <c r="J152" s="18" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="6">
         <v>1567</v>
       </c>
-      <c r="C153" s="11">
+      <c r="C153" s="10">
         <v>19</v>
       </c>
-      <c r="D153" s="11">
+      <c r="D153" s="10">
         <v>742</v>
       </c>
-      <c r="E153" s="11">
+      <c r="E153" s="10">
         <v>806</v>
       </c>
-      <c r="F153" s="11">
+      <c r="F153" s="10">
         <v>3</v>
       </c>
-      <c r="G153" s="11">
+      <c r="G153" s="10">
         <v>12182</v>
       </c>
-      <c r="H153" s="17">
+      <c r="H153" s="15">
         <v>399141</v>
       </c>
-      <c r="I153" s="20" t="s">
+      <c r="I153" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="J153" s="20" t="s">
+      <c r="J153" s="18" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154" s="6">
         <v>1558</v>
       </c>
-      <c r="C154" s="11">
+      <c r="C154" s="10">
         <v>22</v>
       </c>
-      <c r="D154" s="11">
+      <c r="D154" s="10">
         <v>1282</v>
       </c>
-      <c r="E154" s="11">
+      <c r="E154" s="10">
         <v>254</v>
       </c>
-      <c r="F154" s="11">
+      <c r="F154" s="10">
         <v>2</v>
       </c>
-      <c r="G154" s="11">
+      <c r="G154" s="10">
         <v>344831</v>
       </c>
-      <c r="H154" s="17">
+      <c r="H154" s="15">
         <v>1209245</v>
       </c>
-      <c r="I154" s="20" t="s">
+      <c r="I154" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="J154" s="20" t="s">
+      <c r="J154" s="18" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155" s="6">
         <v>1498</v>
       </c>
-      <c r="C155" s="11">
+      <c r="C155" s="10">
         <v>36</v>
       </c>
-      <c r="D155" s="11">
+      <c r="D155" s="10">
         <v>1248</v>
       </c>
-      <c r="E155" s="11">
+      <c r="E155" s="10">
         <v>214</v>
       </c>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11">
+      <c r="F155" s="10"/>
+      <c r="G155" s="10">
         <v>290907</v>
       </c>
-      <c r="H155" s="17">
+      <c r="H155" s="15">
         <v>1881559</v>
       </c>
-      <c r="I155" s="20" t="s">
+      <c r="I155" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="J155" s="20" t="s">
+      <c r="J155" s="18" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156" s="6">
         <v>1483</v>
       </c>
-      <c r="C156" s="11">
+      <c r="C156" s="10">
         <v>53</v>
       </c>
-      <c r="D156" s="11">
+      <c r="D156" s="10">
         <v>1054</v>
       </c>
-      <c r="E156" s="11">
+      <c r="E156" s="10">
         <v>376</v>
       </c>
-      <c r="F156" s="11">
+      <c r="F156" s="10">
         <v>4</v>
       </c>
-      <c r="G156" s="11">
+      <c r="G156" s="10">
         <v>137457</v>
       </c>
-      <c r="H156" s="17">
+      <c r="H156" s="15">
         <v>77292</v>
       </c>
-      <c r="I156" s="20" t="s">
+      <c r="I156" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="J156" s="20" t="s">
+      <c r="J156" s="18" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="6">
         <v>1333</v>
       </c>
-      <c r="C157" s="11">
+      <c r="C157" s="10">
         <v>82</v>
       </c>
-      <c r="D157" s="11">
+      <c r="D157" s="10">
         <v>1214</v>
       </c>
-      <c r="E157" s="11">
+      <c r="E157" s="10">
         <v>37</v>
       </c>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="17">
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="15">
         <v>5082296</v>
       </c>
-      <c r="I157" s="20" t="s">
+      <c r="I157" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="J157" s="20" t="s">
+      <c r="J157" s="18" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158" s="6">
         <v>1327</v>
       </c>
-      <c r="C158" s="11">
+      <c r="C158" s="10">
         <v>33</v>
       </c>
-      <c r="D158" s="11">
+      <c r="D158" s="10">
         <v>687</v>
       </c>
-      <c r="E158" s="11">
+      <c r="E158" s="10">
         <v>607</v>
       </c>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11">
+      <c r="F158" s="10"/>
+      <c r="G158" s="10">
         <v>17261</v>
       </c>
-      <c r="H158" s="17">
+      <c r="H158" s="15">
         <v>2145889</v>
       </c>
-      <c r="I158" s="20" t="s">
+      <c r="I158" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="J158" s="20" t="s">
+      <c r="J158" s="18" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159" s="6">
         <v>1183</v>
       </c>
-      <c r="C159" s="11">
+      <c r="C159" s="10">
         <v>69</v>
       </c>
-      <c r="D159" s="11">
+      <c r="D159" s="10">
         <v>1104</v>
       </c>
-      <c r="E159" s="11">
+      <c r="E159" s="10">
         <v>10</v>
       </c>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11">
+      <c r="F159" s="10"/>
+      <c r="G159" s="10">
         <v>19794</v>
       </c>
-      <c r="H159" s="17">
+      <c r="H159" s="15">
         <v>24382599</v>
       </c>
-      <c r="I159" s="20" t="s">
+      <c r="I159" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="J159" s="20" t="s">
+      <c r="J159" s="18" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B160" s="6">
         <v>1122</v>
       </c>
-      <c r="C160" s="11">
+      <c r="C160" s="10">
         <v>18</v>
       </c>
-      <c r="D160" s="11">
+      <c r="D160" s="10">
         <v>98</v>
       </c>
-      <c r="E160" s="11">
+      <c r="E160" s="10">
         <v>1006</v>
       </c>
-      <c r="F160" s="11">
+      <c r="F160" s="10">
         <v>5</v>
       </c>
-      <c r="G160" s="11">
+      <c r="G160" s="10">
         <v>19534</v>
       </c>
-      <c r="H160" s="17">
+      <c r="H160" s="15">
         <v>375202</v>
       </c>
-      <c r="I160" s="20" t="s">
+      <c r="I160" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="J160" s="20" t="s">
+      <c r="J160" s="18" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B161" s="6">
         <v>1115</v>
       </c>
-      <c r="C161" s="11">
+      <c r="C161" s="10">
         <v>81</v>
       </c>
-      <c r="D161" s="11">
+      <c r="D161" s="10">
         <v>962</v>
       </c>
-      <c r="E161" s="11">
+      <c r="E161" s="10">
         <v>72</v>
       </c>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="17">
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="15">
         <v>16522273</v>
       </c>
-      <c r="I161" s="20" t="s">
+      <c r="I161" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="J161" s="20" t="s">
+      <c r="J161" s="18" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B162" s="6">
         <v>1066</v>
       </c>
-      <c r="C162" s="11">
+      <c r="C162" s="10">
         <v>35</v>
       </c>
-      <c r="D162" s="11">
+      <c r="D162" s="10">
         <v>940</v>
       </c>
-      <c r="E162" s="11">
+      <c r="E162" s="10">
         <v>91</v>
       </c>
-      <c r="F162" s="11"/>
-      <c r="G162" s="11">
+      <c r="F162" s="10"/>
+      <c r="G162" s="10">
         <v>1009145</v>
       </c>
-      <c r="H162" s="17">
+      <c r="H162" s="15">
         <v>97525870</v>
       </c>
-      <c r="I162" s="20" t="s">
+      <c r="I162" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="J162" s="20" t="s">
+      <c r="J162" s="18" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B163" s="7">
+      <c r="B163" s="6">
         <v>516</v>
       </c>
-      <c r="C163" s="11">
+      <c r="C163" s="10">
         <v>6</v>
       </c>
-      <c r="D163" s="11">
+      <c r="D163" s="10">
         <v>232</v>
       </c>
-      <c r="E163" s="11">
+      <c r="E163" s="10">
         <v>278</v>
       </c>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11">
+      <c r="F163" s="10"/>
+      <c r="G163" s="10">
         <v>17276</v>
       </c>
-      <c r="H163" s="17">
+      <c r="H163" s="15">
         <v>8982487</v>
       </c>
-      <c r="I163" s="20" t="s">
+      <c r="I163" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="J163" s="20" t="s">
+      <c r="J163" s="18" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="6">
         <v>509</v>
       </c>
-      <c r="C164" s="11">
+      <c r="C164" s="10">
         <v>21</v>
       </c>
-      <c r="D164" s="11">
+      <c r="D164" s="10">
         <v>183</v>
       </c>
-      <c r="E164" s="11">
+      <c r="E164" s="10">
         <v>305</v>
       </c>
-      <c r="F164" s="11">
+      <c r="F164" s="10">
         <v>7</v>
       </c>
-      <c r="G164" s="11"/>
-      <c r="H164" s="17">
+      <c r="G164" s="10"/>
+      <c r="H164" s="15">
         <v>60082410</v>
       </c>
-      <c r="I164" s="20" t="s">
+      <c r="I164" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="J164" s="20" t="s">
+      <c r="J164" s="18" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B165" s="6">
         <v>503</v>
       </c>
-      <c r="C165" s="11">
+      <c r="C165" s="10">
         <v>7</v>
       </c>
-      <c r="D165" s="11">
+      <c r="D165" s="10">
         <v>478</v>
       </c>
-      <c r="E165" s="11">
+      <c r="E165" s="10">
         <v>18</v>
       </c>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11">
+      <c r="F165" s="10"/>
+      <c r="G165" s="10">
         <v>90431</v>
       </c>
-      <c r="H165" s="17">
+      <c r="H165" s="15">
         <v>23826131</v>
       </c>
-      <c r="I165" s="20" t="s">
+      <c r="I165" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="J165" s="20" t="s">
+      <c r="J165" s="18" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B166" s="6">
         <v>473</v>
       </c>
-      <c r="C166" s="11">
+      <c r="C166" s="10">
         <v>1</v>
       </c>
-      <c r="D166" s="11">
+      <c r="D166" s="10">
         <v>374</v>
       </c>
-      <c r="E166" s="11">
+      <c r="E166" s="10">
         <v>98</v>
       </c>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11">
+      <c r="F166" s="10"/>
+      <c r="G166" s="10">
         <v>27836</v>
       </c>
-      <c r="H166" s="17">
+      <c r="H166" s="15">
         <v>11963031</v>
       </c>
-      <c r="I166" s="20" t="s">
+      <c r="I166" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="J166" s="20" t="s">
+      <c r="J166" s="18" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167" s="6">
         <v>364</v>
       </c>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11">
+      <c r="C167" s="10"/>
+      <c r="D167" s="10">
         <v>305</v>
       </c>
-      <c r="E167" s="11">
+      <c r="E167" s="10">
         <v>59</v>
       </c>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="17">
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="15">
         <v>3556809</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="I167" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="J167" s="20" t="s">
+      <c r="J167" s="18" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B168" s="7">
+      <c r="B168" s="6">
         <v>311</v>
       </c>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11">
+      <c r="C168" s="10"/>
+      <c r="D168" s="10">
         <v>302</v>
       </c>
-      <c r="E168" s="11">
+      <c r="E168" s="10">
         <v>9</v>
       </c>
-      <c r="F168" s="11">
+      <c r="F168" s="10">
         <v>1</v>
       </c>
-      <c r="G168" s="11">
+      <c r="G168" s="10">
         <v>64166</v>
       </c>
-      <c r="H168" s="17">
+      <c r="H168" s="15">
         <v>3289407</v>
       </c>
-      <c r="I168" s="20" t="s">
+      <c r="I168" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="J168" s="20" t="s">
+      <c r="J168" s="18" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B169" s="6">
         <v>275</v>
       </c>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11">
+      <c r="C169" s="10"/>
+      <c r="D169" s="10">
         <v>274</v>
       </c>
-      <c r="E169" s="11">
+      <c r="E169" s="10">
         <v>1</v>
       </c>
-      <c r="F169" s="11"/>
-      <c r="G169" s="11">
+      <c r="F169" s="10"/>
+      <c r="G169" s="10">
         <v>12153</v>
       </c>
-      <c r="H169" s="17">
+      <c r="H169" s="15">
         <v>16767934</v>
       </c>
-      <c r="I169" s="20" t="s">
+      <c r="I169" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="J169" s="20" t="s">
+      <c r="J169" s="18" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B170" s="7">
+      <c r="B170" s="6">
         <v>252</v>
       </c>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11">
+      <c r="C170" s="10"/>
+      <c r="D170" s="10">
         <v>182</v>
       </c>
-      <c r="E170" s="11">
+      <c r="E170" s="10">
         <v>70</v>
       </c>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11">
+      <c r="F170" s="10"/>
+      <c r="G170" s="10">
         <v>122546</v>
       </c>
-      <c r="H170" s="17">
+      <c r="H170" s="15">
         <v>773417</v>
       </c>
-      <c r="I170" s="20" t="s">
+      <c r="I170" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="J170" s="20" t="s">
+      <c r="J170" s="18" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B171" s="7">
+      <c r="B171" s="6">
         <v>178</v>
       </c>
-      <c r="C171" s="11">
+      <c r="C171" s="10">
         <v>9</v>
       </c>
-      <c r="D171" s="11">
+      <c r="D171" s="10">
         <v>164</v>
       </c>
-      <c r="E171" s="11">
+      <c r="E171" s="10">
         <v>5</v>
       </c>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11">
+      <c r="F171" s="10"/>
+      <c r="G171" s="10">
         <v>56728</v>
       </c>
-      <c r="H171" s="17">
+      <c r="H171" s="15">
         <v>62228</v>
       </c>
-      <c r="I171" s="20" t="s">
+      <c r="I171" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="J171" s="20" t="s">
+      <c r="J171" s="18" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B172" s="7">
+      <c r="B172" s="6">
         <v>145</v>
       </c>
-      <c r="C172" s="11">
+      <c r="C172" s="10">
         <v>3</v>
       </c>
-      <c r="D172" s="11">
+      <c r="D172" s="10">
         <v>141</v>
       </c>
-      <c r="E172" s="11">
+      <c r="E172" s="10">
         <v>1</v>
       </c>
-      <c r="F172" s="11"/>
-      <c r="G172" s="11">
+      <c r="F172" s="10"/>
+      <c r="G172" s="10">
         <v>55256</v>
       </c>
-      <c r="H172" s="17">
+      <c r="H172" s="15">
         <v>438374</v>
       </c>
-      <c r="I172" s="20" t="s">
+      <c r="I172" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="J172" s="20" t="s">
+      <c r="J172" s="18" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B173" s="7">
+      <c r="B173" s="6">
         <v>32</v>
       </c>
-      <c r="C173" s="11">
+      <c r="C173" s="10">
         <v>2</v>
       </c>
-      <c r="D173" s="11">
+      <c r="D173" s="10">
         <v>26</v>
       </c>
-      <c r="E173" s="11">
+      <c r="E173" s="10">
         <v>4</v>
       </c>
-      <c r="F173" s="11">
+      <c r="F173" s="10">
         <v>1</v>
       </c>
-      <c r="G173" s="11">
+      <c r="G173" s="10">
         <v>957</v>
       </c>
-      <c r="H173" s="17">
+      <c r="H173" s="15">
         <v>897839</v>
       </c>
-      <c r="I173" s="20" t="s">
+      <c r="I173" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="J173" s="20" t="s">
+      <c r="J173" s="18" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B174" s="7">
+      <c r="B174" s="6">
         <v>26</v>
       </c>
-      <c r="C174" s="12"/>
-      <c r="D174" s="12">
+      <c r="C174" s="11"/>
+      <c r="D174" s="11">
         <v>26</v>
       </c>
-      <c r="E174" s="12">
+      <c r="E174" s="11">
         <v>0</v>
       </c>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12">
+      <c r="F174" s="11"/>
+      <c r="G174" s="11">
         <v>13463</v>
       </c>
-      <c r="H174" s="17">
+      <c r="H174" s="15">
         <v>286084</v>
       </c>
-      <c r="I174" s="20" t="s">
+      <c r="I174" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="J174" s="20" t="s">
+      <c r="J174" s="18" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B175" s="6">
         <v>24</v>
       </c>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11">
+      <c r="C175" s="10"/>
+      <c r="D175" s="10">
         <v>18</v>
       </c>
-      <c r="E175" s="11">
+      <c r="E175" s="10">
         <v>6</v>
       </c>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11">
+      <c r="F175" s="10"/>
+      <c r="G175" s="10">
         <v>2077</v>
       </c>
-      <c r="H175" s="17">
+      <c r="H175" s="15">
         <v>72025</v>
       </c>
-      <c r="I175" s="20" t="s">
+      <c r="I175" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="J175" s="20" t="s">
+      <c r="J175" s="18" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B176" s="6">
         <v>23</v>
       </c>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11">
+      <c r="C176" s="10"/>
+      <c r="D176" s="10">
         <v>22</v>
       </c>
-      <c r="E176" s="11">
+      <c r="E176" s="10">
         <v>1</v>
       </c>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11">
+      <c r="F176" s="10"/>
+      <c r="G176" s="10">
         <v>4607</v>
       </c>
-      <c r="H176" s="17">
+      <c r="H176" s="15">
         <v>7297871</v>
       </c>
-      <c r="I176" s="20" t="s">
+      <c r="I176" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="J176" s="20" t="s">
+      <c r="J176" s="18" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B177" s="7">
+      <c r="B177" s="6">
         <v>14</v>
       </c>
-      <c r="C177" s="12"/>
-      <c r="D177" s="12">
+      <c r="C177" s="11"/>
+      <c r="D177" s="11">
         <v>14</v>
       </c>
-      <c r="E177" s="12">
+      <c r="E177" s="11">
         <v>0</v>
       </c>
-      <c r="F177" s="12"/>
-      <c r="G177" s="12">
+      <c r="F177" s="11"/>
+      <c r="G177" s="11">
         <v>7421</v>
       </c>
-      <c r="H177" s="17">
+      <c r="H177" s="15">
         <v>56791</v>
       </c>
-      <c r="I177" s="20" t="s">
+      <c r="I177" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="J177" s="20" t="s">
+      <c r="J177" s="18" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B178" s="7">
+      <c r="B178" s="6">
         <v>13</v>
       </c>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12">
+      <c r="C178" s="11"/>
+      <c r="D178" s="11">
         <v>13</v>
       </c>
-      <c r="E178" s="12">
+      <c r="E178" s="11">
         <v>0</v>
       </c>
-      <c r="F178" s="12"/>
-      <c r="G178" s="12">
+      <c r="F178" s="11"/>
+      <c r="G178" s="11">
         <v>2261</v>
       </c>
-      <c r="H178" s="17">
+      <c r="H178" s="15">
         <v>3501</v>
       </c>
-      <c r="I178" s="20" t="s">
+      <c r="I178" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="J178" s="20" t="s">
+      <c r="J178" s="18" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B179" s="8">
+      <c r="B179" s="7">
         <v>10</v>
       </c>
-      <c r="C179" s="13">
+      <c r="C179" s="12">
         <v>1</v>
       </c>
-      <c r="D179" s="13">
+      <c r="D179" s="12">
         <v>8</v>
       </c>
-      <c r="E179" s="13">
+      <c r="E179" s="12">
         <v>1</v>
       </c>
-      <c r="F179" s="13"/>
-      <c r="G179" s="13"/>
-      <c r="H179" s="18">
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="16">
         <v>600372</v>
       </c>
-      <c r="I179" s="20" t="s">
+      <c r="I179" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="J179" s="20" t="s">
+      <c r="J179" s="18" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B180" s="7">
+      <c r="B180" s="6">
         <v>130</v>
       </c>
-      <c r="C180" s="10">
+      <c r="C180" s="9">
         <v>4</v>
       </c>
-      <c r="D180" s="11">
+      <c r="D180" s="10">
         <v>100</v>
       </c>
-      <c r="E180" s="11">
+      <c r="E180" s="10">
         <v>26</v>
       </c>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-      <c r="H180" s="17">
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="15">
         <v>326000</v>
       </c>
-      <c r="I180" s="5">
+      <c r="I180" s="4">
         <v>35238972</v>
       </c>
-      <c r="J180" s="5">
+      <c r="J180" s="4">
         <v>33655606</v>
       </c>
     </row>
